--- a/resultadoTemp.xlsx
+++ b/resultadoTemp.xlsx
@@ -451,7 +451,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">y = 0.0168*x + -33.0426
+          <t xml:space="preserve">y = 0.0168*x + (-33.0426)
 </t>
         </is>
       </c>
@@ -467,7 +467,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">y = 33.4125*log(x) + -253.4261
+          <t xml:space="preserve">y = 33.4125*log(x) + (-253.4261)
 </t>
         </is>
       </c>
@@ -499,7 +499,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve">y = nan*x + nan
+          <t xml:space="preserve">y = nan*x + (nan)
 </t>
         </is>
       </c>
@@ -531,7 +531,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve">y = (618.8973*x**2) + -0.6380*x + 0.0002 
+          <t xml:space="preserve">y = (618.8973*x**2) + (-0.6380)*x + (0.0002) 
 </t>
         </is>
       </c>

--- a/resultadoTemp.xlsx
+++ b/resultadoTemp.xlsx
@@ -451,13 +451,13 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">y = 0.0168*x + (-33.0426)
+          <t xml:space="preserve">y = 0.0103*x + (-3.2939)
 </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>R² = 0.8282</t>
+          <t>R² = 0.8531</t>
         </is>
       </c>
     </row>
@@ -467,13 +467,13 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">y = 33.4125*log(x) + (-253.4261)
+          <t xml:space="preserve">y = 3.7214*log(x) + (-21.4879)
 </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>R² = 0.8271</t>
+          <t>R² = 0.8507</t>
         </is>
       </c>
     </row>
@@ -499,7 +499,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve">y = nan*x + (nan)
+          <t xml:space="preserve">y = nan*x**(nan)
 </t>
         </is>
       </c>
@@ -531,13 +531,13 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve">y = (618.8973*x**2) + (-0.6380)*x + (0.0002) 
+          <t xml:space="preserve">y = (-2.4987*x**2) + (0.0059)*x + (0.0000) 
 </t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>R² = 0.8506</t>
+          <t>R² = 0.8533</t>
         </is>
       </c>
     </row>

--- a/resultadoTemp.xlsx
+++ b/resultadoTemp.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,13 +451,13 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">y = 0.0103*x + (-3.2939)
+          <t xml:space="preserve">y = 0.0167904061*x + (-33.0426095770)
 </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>R² = 0.8531</t>
+          <t>R² = 0.8282363670</t>
         </is>
       </c>
     </row>
@@ -467,13 +467,13 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">y = 3.7214*log(x) + (-21.4879)
+          <t xml:space="preserve">y = 33.4125286173*log(x) + (-253.4260975580)
 </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>R² = 0.8507</t>
+          <t>R² = 0.8270742741</t>
         </is>
       </c>
     </row>
@@ -483,13 +483,13 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">y = nan*e**(nan*x)
+          <t xml:space="preserve">y = 0.0000000035*e**(0.0100215879*x)
 </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>R² = 0.0000</t>
+          <t>R² = 0.8277782320</t>
         </is>
       </c>
     </row>
@@ -499,13 +499,13 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve">y = nan*x**(nan)
+          <t xml:space="preserve">y = 0.0000000000*x**(19.9492816983)
 </t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>R² = 0.0000</t>
+          <t>R² = 0.8271597219</t>
         </is>
       </c>
     </row>
@@ -515,29 +515,13 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">y = nan*x**(nan)
+          <t xml:space="preserve">y = (618.8972695468*x**2) + (-0.6379906026)*x + (0.0001643940) 
 </t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>R² = 0.0000</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">y = (-2.4987*x**2) + (0.0059)*x + (0.0000) 
-</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>R² = 0.8533</t>
+          <t>R² = 0.8506021040</t>
         </is>
       </c>
     </row>

--- a/resultadoTemp.xlsx
+++ b/resultadoTemp.xlsx
@@ -483,7 +483,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">y = 0.0000000035*e**(0.0100215879*x)
+          <t xml:space="preserve">y = 0.0000000035*e**(0.0100215879*x) - 1.2800
 </t>
         </is>
       </c>
@@ -499,7 +499,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve">y = 0.0000000000*x**(19.9492816983)
+          <t xml:space="preserve">y = 0.0000000000*x**(19.9492816983) - 1.2800
 </t>
         </is>
       </c>

--- a/resultadoTemp.xlsx
+++ b/resultadoTemp.xlsx
@@ -515,7 +515,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">y = (618.8972695468*x**2) + (-0.6379906026)*x + (0.0001643940) 
+          <t xml:space="preserve">y = (0.0001643940*x**2) + (-0.6379906026)*x + (618.8972695468) 
 </t>
         </is>
       </c>

--- a/resultadoTemp.xlsx
+++ b/resultadoTemp.xlsx
@@ -451,13 +451,13 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">y = 0.0167904061*x + (-33.0426095770)
+          <t xml:space="preserve">y = 1.6404*x + (-2907.5485)
 </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>R² = 0.8282363670</t>
+          <t>R² = 0.9772</t>
         </is>
       </c>
     </row>
@@ -467,13 +467,13 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">y = 33.4125286173*log(x) + (-253.4260975580)
+          <t xml:space="preserve">y = 3264.7262*log(x) + (-24441.5544)
 </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>R² = 0.8270742741</t>
+          <t>R² = 0.9761</t>
         </is>
       </c>
     </row>
@@ -483,13 +483,13 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">y = 0.0000000035*e**(0.0100215879*x) - 1.2800
+          <t xml:space="preserve">y = 0.0424*e**(0.0045*x)
 </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>R² = 0.8277782320</t>
+          <t>R² = 0.9855</t>
         </is>
       </c>
     </row>
@@ -499,13 +499,13 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve">y = 0.0000000000*x**(19.9492816983) - 1.2800
+          <t xml:space="preserve">y = 0.0000*x**(9.0358)
 </t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>R² = 0.8271597219</t>
+          <t>R² = 0.9847</t>
         </is>
       </c>
     </row>
@@ -515,13 +515,13 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">y = (0.0001643940*x**2) + (-0.6379906026)*x + (618.8972695468) 
+          <t xml:space="preserve">y = (0.0131*x**2) + (-50.6753)*x + (49181.1661) 
 </t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>R² = 0.8506021040</t>
+          <t>R² = 0.9949</t>
         </is>
       </c>
     </row>

--- a/resultadoTemp.xlsx
+++ b/resultadoTemp.xlsx
@@ -451,13 +451,13 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">y = 1.6404*x + (-2907.5485)
+          <t xml:space="preserve">y = 0.0167904061*x + (-33.0426095770)
 </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>R² = 0.9772</t>
+          <t>R² = 0.8282363670</t>
         </is>
       </c>
     </row>
@@ -467,13 +467,13 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">y = 3264.7262*log(x) + (-24441.5544)
+          <t xml:space="preserve">y = 33.4125286173*log(x) + (-253.4260975580)
 </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>R² = 0.9761</t>
+          <t>R² = 0.8270742741</t>
         </is>
       </c>
     </row>
@@ -483,13 +483,13 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">y = 0.0424*e**(0.0045*x)
+          <t xml:space="preserve">y = 0.0000000035*e**(0.0100215879*x) - 1.2800
 </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>R² = 0.9855</t>
+          <t>R² = 0.8277782320</t>
         </is>
       </c>
     </row>
@@ -499,13 +499,13 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve">y = 0.0000*x**(9.0358)
+          <t xml:space="preserve">y = 0.0000000000*x**(19.9492816983) - 1.2800
 </t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>R² = 0.9847</t>
+          <t>R² = 0.8271597219</t>
         </is>
       </c>
     </row>
@@ -515,13 +515,13 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">y = (0.0131*x**2) + (-50.6753)*x + (49181.1661) 
+          <t xml:space="preserve">y = (0.0001643940*x**2) + (-0.6379906026)*x + (618.8972695468) 
 </t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>R² = 0.9949</t>
+          <t>R² = 0.8506021040</t>
         </is>
       </c>
     </row>

--- a/resultadoTemp.xlsx
+++ b/resultadoTemp.xlsx
@@ -451,13 +451,13 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">y = 0.0167904061*x + (-33.0426095770)
+          <t xml:space="preserve">y = 0.016790*x + (-33.042610)
 </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>R² = 0.8282363670</t>
+          <t>R² = 0.828236</t>
         </is>
       </c>
     </row>
@@ -467,13 +467,13 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">y = 33.4125286173*log(x) + (-253.4260975580)
+          <t xml:space="preserve">y = 33.412529*log(x) + (-253.426098)
 </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>R² = 0.8270742741</t>
+          <t>R² = 0.827074</t>
         </is>
       </c>
     </row>
@@ -483,13 +483,13 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">y = 0.0000000035*e**(0.0100215879*x) - 1.2800
+          <t xml:space="preserve">y = 0.000000*e**(0.010022*x) - 1.280000
 </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>R² = 0.8277782320</t>
+          <t>R² = 0.827778</t>
         </is>
       </c>
     </row>
@@ -499,13 +499,13 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve">y = 0.0000000000*x**(19.9492816983) - 1.2800
+          <t xml:space="preserve">y = 0.000000*x**(19.949282) - 1.280000
 </t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>R² = 0.8271597219</t>
+          <t>R² = 0.827160</t>
         </is>
       </c>
     </row>
@@ -515,13 +515,13 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">y = (0.0001643940*x**2) + (-0.6379906026)*x + (618.8972695468) 
+          <t xml:space="preserve">y = (0.000164*x**2) + (-0.637991)*x + (618.897334) 
 </t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>R² = 0.8506021040</t>
+          <t>R² = 0.850602</t>
         </is>
       </c>
     </row>

--- a/resultadoTemp.xlsx
+++ b/resultadoTemp.xlsx
@@ -451,7 +451,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">y = 0.016790*x + (-33.042610)
+          <t xml:space="preserve">y = 0.0167904*x + (-33.0426)
 </t>
         </is>
       </c>
@@ -467,7 +467,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">y = 33.412529*log(x) + (-253.426098)
+          <t xml:space="preserve">y = 33.4125*log(x) + (-253.426)
 </t>
         </is>
       </c>
@@ -483,7 +483,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">y = 0.000000*e**(0.010022*x) - 1.280000
+          <t xml:space="preserve">y = 3.52574e-09*e**(0.0100216*x) - 1.28
 </t>
         </is>
       </c>
@@ -499,13 +499,13 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve">y = 0.000000*x**(19.949282) - 1.280000
+          <t xml:space="preserve">y = 2.50613e-66*x**(19.9493) - 1.28
 </t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>R² = 0.827160</t>
+          <t>R² = 0.82716</t>
         </is>
       </c>
     </row>
@@ -515,7 +515,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">y = (0.000164*x**2) + (-0.637991)*x + (618.897334) 
+          <t xml:space="preserve">y = (0.000164394*x**2) + (-0.637991)*x + (618.897) 
 </t>
         </is>
       </c>

--- a/resultadoTemp.xlsx
+++ b/resultadoTemp.xlsx
@@ -467,7 +467,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">y = 33.4125*log(x) + (-253.426)
+          <t xml:space="preserve">y = 33.4125*ln(x) + (-253.426)
 </t>
         </is>
       </c>
